--- a/resources/experiment 1/metrics/R2/upto time/Fallo Cardiaco (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Fallo Cardiaco (UPTO).xlsx
@@ -465,10 +465,10 @@
         <v>0.5730332030979278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5730332030979278</v>
+        <v>0.5730332030979277</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5730332030979278</v>
+        <v>0.5730332030979277</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8595562210214944</v>
+        <v>0.8450135306879822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8595193661331081</v>
+        <v>0.8459775437763802</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8595193661331081</v>
+        <v>0.7902435973911706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8690728850049625</v>
+        <v>0.806352936269886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8690728850049625</v>
+        <v>0.804006689235123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8690728850049625</v>
+        <v>0.7825155647311234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.846961359958422</v>
+        <v>0.4965509132838069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8468628774034893</v>
+        <v>0.4429196630983468</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8468628774034893</v>
+        <v>0.2149854027088011</v>
       </c>
     </row>
   </sheetData>
